--- a/auto_machine_learning/excel_file.xlsx
+++ b/auto_machine_learning/excel_file.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="20775" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+  <si>
+    <t>Estimator</t>
+  </si>
+  <si>
+    <t>Feature Engineering Method</t>
+  </si>
+  <si>
+    <t>Hyperparameter Optimisation Method</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>precision_micro</t>
+  </si>
+  <si>
+    <t>precision_macro</t>
+  </si>
+  <si>
+    <t>recall_micro</t>
+  </si>
+  <si>
+    <t>recall_macro</t>
+  </si>
+  <si>
+    <t>f1_micro</t>
+  </si>
+  <si>
+    <t>f1_macro</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>all_features</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>anova_classifier</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>select_from_model</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,233 +423,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Estimator</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Feature Engineering Method</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hyperparameter Optimisation Method</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>precision_micro</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>precision_macro</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>recall_micro</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>recall_macro</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>f1_micro</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>f1_macro</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>all_features</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7961</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7961</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7962</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7961</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7961</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>anova_classifier</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7765</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7765</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7768</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7765</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7768</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7765</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7765</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I2">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="G3">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>0.8196</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.8196</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.8197</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="H4">
         <v>0.8196</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.8194</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="J4">
         <v>0.8196</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.8195</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="K4">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LogisticRegression</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>select_from_model</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>0.8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.8</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.8051</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="G5">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="H5">
         <v>0.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.8012</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="J5">
         <v>0.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.7996</v>
+      <c r="K5">
+        <v>0.79959999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K6">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0.91</v>
+      </c>
+      <c r="F7">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H7">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I7">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.8196</v>
+      </c>
+      <c r="G8">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.8196</v>
+      </c>
+      <c r="I8">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.8196</v>
+      </c>
+      <c r="K8">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>0.79959999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/auto_machine_learning/excel_file.xlsx
+++ b/auto_machine_learning/excel_file.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutoML_library\auto_machine_learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624064DD-3F1A-4119-8193-27BDDDF0C6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="525" windowWidth="20775" windowHeight="9405"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>Estimator</t>
   </si>
@@ -65,13 +74,16 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Bayesian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,11 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +151,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -423,16 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,126 +484,118 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>0.79610000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.79610000000000003</v>
+        <v>0.8196</v>
       </c>
       <c r="G2">
-        <v>0.79600000000000004</v>
+        <v>0.81969999999999998</v>
       </c>
       <c r="H2">
-        <v>0.79610000000000003</v>
+        <v>0.8196</v>
       </c>
       <c r="I2">
-        <v>0.79620000000000002</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="J2">
-        <v>0.79610000000000003</v>
+        <v>0.8196</v>
       </c>
       <c r="K2">
-        <v>0.79610000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>0.77649999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.77649999999999997</v>
+        <v>0.8196</v>
       </c>
       <c r="G3">
-        <v>0.77680000000000005</v>
+        <v>0.81969999999999998</v>
       </c>
       <c r="H3">
-        <v>0.77649999999999997</v>
+        <v>0.8196</v>
       </c>
       <c r="I3">
-        <v>0.77680000000000005</v>
+        <v>0.81940000000000002</v>
       </c>
       <c r="J3">
-        <v>0.77649999999999997</v>
+        <v>0.8196</v>
       </c>
       <c r="K3">
-        <v>0.77649999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>0.8196</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
-        <v>0.8196</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
-        <v>0.81969999999999998</v>
+        <v>0.80510000000000004</v>
       </c>
       <c r="H4">
-        <v>0.8196</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>0.81940000000000002</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="J4">
-        <v>0.8196</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.81950000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+        <v>0.79959999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5">
         <v>0.8</v>
@@ -604,7 +616,7 @@
         <v>0.79959999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -636,103 +648,379 @@
         <v>0.79610000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0.91</v>
-      </c>
-      <c r="F7">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="G7">
-        <v>0.77680000000000005</v>
-      </c>
-      <c r="H7">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="I7">
-        <v>0.77680000000000005</v>
-      </c>
-      <c r="J7">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="K7">
-        <v>0.77649999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="F8">
-        <v>0.8196</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="G8">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K8">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I9">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K9">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K10">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0.79959999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0.79959999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.8196</v>
+      </c>
+      <c r="F14">
+        <v>0.8196</v>
+      </c>
+      <c r="G14">
         <v>0.81969999999999998</v>
       </c>
-      <c r="H8">
-        <v>0.8196</v>
-      </c>
-      <c r="I8">
+      <c r="H14">
+        <v>0.8196</v>
+      </c>
+      <c r="I14">
         <v>0.81940000000000002</v>
       </c>
-      <c r="J8">
-        <v>0.8196</v>
-      </c>
-      <c r="K8">
+      <c r="J14">
+        <v>0.8196</v>
+      </c>
+      <c r="K14">
         <v>0.81950000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="B9" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0.8196</v>
+      </c>
+      <c r="F15">
+        <v>0.8196</v>
+      </c>
+      <c r="G15">
+        <v>0.81969999999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.8196</v>
+      </c>
+      <c r="I15">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.8196</v>
+      </c>
+      <c r="K15">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>0.6</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>0.80510000000000004</v>
-      </c>
-      <c r="H9">
-        <v>0.8</v>
-      </c>
-      <c r="I9">
-        <v>0.80120000000000002</v>
-      </c>
-      <c r="J9">
-        <v>0.8</v>
-      </c>
-      <c r="K9">
-        <v>0.79959999999999998</v>
+      <c r="E16">
+        <v>0.91</v>
+      </c>
+      <c r="F16">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H16">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K16">
+        <v>0.77649999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0.91</v>
+      </c>
+      <c r="F17">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="G17">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J17">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="K17">
+        <v>0.77649999999999997</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{BA86D4EE-03F8-4BB5-8DA1-8AFD48EB9AC0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>